--- a/4_read_write_to_excel/new1.xlsx
+++ b/4_read_write_to_excel/new1.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sam Walton</t>
+          <t>sim wiltin</t>
         </is>
       </c>
     </row>
